--- a/pred_ohlcv/54_21/2020-01-21 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 TRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>705107.0146049799</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1285180.69390498</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1285180.69390498</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1232517.78710498</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2363482.09850595</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2363482.09850595</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2367597.38480595</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2367597.38480595</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2228299.11760595</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2228299.11760595</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2399851.48582634</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-442901.3685622504</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-3752782.2955046</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-4617894.145707741</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-5254973.218907742</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-5254229.152807741</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-5241615.833681482</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-5238805.833681482</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-5228170.031681482</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-5228170.031681482</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-4485707.031681482</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-4945538.588781482</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-4945538.588781482</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-4938200.048181482</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-4938200.048181482</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-4948493.624981482</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-4948493.624981482</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-4767362.695081482</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-4382362.243681482</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-4374330.261581482</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-4374330.261581482</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-4374330.261581482</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-4553947.384681483</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-5261665.099278073</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-5249666.090578073</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-5258609.493578073</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-5258609.493578073</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-5239739.839455932</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-5253708.844655932</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-5413168.865655932</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-5742827.767155931</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-6847271.324155931</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-7399465.493043654</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-7573192.205543654</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-7582594.547943654</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-7594586.586843655</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-7807964.236743654</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-7807964.236743654</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-7807964.236743654</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-7826044.633843654</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-7814100.127443654</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-7814100.127443654</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-7818149.324243654</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-7818149.324243654</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-7815309.644609643</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-7887599.242409643</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-7289853.515743652</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-7289853.515743652</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-7289853.515743652</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-7142605.116743652</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-7142605.116743652</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-7237001.789943652</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-7400719.681443652</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-7654562.305943652</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-7654562.305943652</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-6661904.097416762</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-6661904.097416762</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-6861209.324016762</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-6861209.324016762</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-6861209.324016762</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-7746810.979416762</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-7741731.610316762</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-7741731.610316762</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-7741731.610316762</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-7900819.115616762</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-8025005.711816762</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-8020150.377616761</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-7800536.981216761</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-8072478.031916762</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-8563210.096416762</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-8343843.847716762</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-684416752.0068511</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-684418396.445451</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-684418396.445451</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-684326930.238451</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-684281906.854351</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-684281906.854351</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-684281906.854351</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-684281906.854351</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-684260538.466451</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-684260538.466451</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-684043982.1259511</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-683743760.116451</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-683629572.226251</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-683629572.226251</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-691293470.2651291</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-691149294.7681005</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-691149362.6222006</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-691149362.6222006</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-696073660.68344</v>
       </c>
       <c r="H764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-696346258.11304</v>
       </c>
       <c r="H766">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-696201496.0812399</v>
       </c>
       <c r="H767">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-696240456.6464399</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-696149133.98434</v>
       </c>
       <c r="H769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-696149291.8785399</v>
       </c>
       <c r="H770">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-696149291.8785399</v>
       </c>
       <c r="H771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-696149291.8785399</v>
       </c>
       <c r="H772">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-696093763.3714399</v>
       </c>
       <c r="H773">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-696072170.32704</v>
       </c>
       <c r="H774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-695878535.62454</v>
       </c>
       <c r="H775">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-695878535.62454</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-695868139.37484</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-695861337.90734</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-695861337.90734</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-21 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-21 TRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>705107.0146049799</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1285180.69390498</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1285180.69390498</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1232517.78710498</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2499348.97194767</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2363482.09850595</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2367597.38480595</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2367597.38480595</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2228299.11760595</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2228299.11760595</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2399851.48582634</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2399651.48582634</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>2399651.48582634</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>2399651.48582634</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2399651.48582634</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-4617894.145707741</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-5254973.218907742</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-5254229.152807741</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-5241615.833681482</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-5238805.833681482</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-5228170.031681482</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-5228170.031681482</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-4485707.031681482</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-4945538.588781482</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-4945538.588781482</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-4938200.048181482</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-4938200.048181482</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-4948493.624981482</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-4948493.624981482</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-4767362.695081482</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-4382362.243681482</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-4374330.261581482</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-4374330.261581482</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-4374330.261581482</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-4553947.384681483</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-5249666.090578073</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-5258609.493578073</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-5258609.493578073</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-5239739.839455932</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-5253708.844655932</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-5413168.865655932</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-5742827.767155931</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-6847271.324155931</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-6847271.324155931</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-6988416.791855931</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-7022740.050526472</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-6965068.092854522</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-6963430.953417982</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-7257568.711970533</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-7399639.520383294</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-7573192.205543654</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-7582594.547943654</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-7807964.236743654</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-7807964.236743654</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-7807964.236743654</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-7826044.633843654</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-7814100.127443654</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-7818149.324243654</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-7818149.324243654</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-7815309.644609643</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-7289853.515743652</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-7289853.515743652</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-7289853.515743652</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-7142605.116743652</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-7142605.116743652</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-7237001.789943652</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-7400719.681443652</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-7654562.305943652</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-7654562.305943652</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-6661904.097416762</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-6661904.097416762</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-6861209.324016762</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-6861209.324016762</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-6861209.324016762</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-7746810.979416762</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-7741731.610316762</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-7741731.610316762</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-7741731.610316762</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-7900819.115616762</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-8025005.711816762</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-8020150.377616761</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-7800536.981216761</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-8072478.031916762</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-8563210.096416762</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-8343843.847716762</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-8343843.847716762</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-8343843.847716762</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-8343627.263616762</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-8526683.515016763</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-8432496.544516763</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-8487736.155616762</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-8533405.690116761</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-684416752.0068511</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-684418396.445451</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-684418396.445451</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-684326930.238451</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-684281906.854351</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-684281906.854351</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-684281906.854351</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-684281906.854351</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-684260538.466451</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-684260538.466451</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-684043982.1259511</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-683743760.116451</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-683629572.226251</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-683629572.226251</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-691293470.2651291</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-691149294.7681005</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-691149362.6222006</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-691149362.6222006</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-696073660.68344</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-696346258.11304</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-696201496.0812399</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-696240456.6464399</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-696149133.98434</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-696149291.8785399</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-696149291.8785399</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-696149291.8785399</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-696093763.3714399</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-696072170.32704</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-695878535.62454</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-695878535.62454</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-695868139.37484</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-695861337.90734</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-695861337.90734</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
